--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value660.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value660.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.837235143706282</v>
+        <v>1.322262525558472</v>
       </c>
       <c r="B1">
-        <v>2.17313472162299</v>
+        <v>2.377776622772217</v>
       </c>
       <c r="C1">
-        <v>2.276617096377834</v>
+        <v>2.950720310211182</v>
       </c>
       <c r="D1">
-        <v>2.783751431643423</v>
+        <v>3.396380662918091</v>
       </c>
       <c r="E1">
-        <v>2.515063921075889</v>
+        <v>1.670630693435669</v>
       </c>
     </row>
   </sheetData>
